--- a/uploads/19.xlsx
+++ b/uploads/19.xlsx
@@ -237,10 +237,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -546,61 +552,64 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -641,7 +650,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -678,11 +687,11 @@
         <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -719,11 +728,11 @@
         <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -760,11 +769,11 @@
         <v>30</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -801,11 +810,11 @@
         <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -842,11 +851,11 @@
         <v>30</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -883,11 +892,11 @@
         <v>30</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -924,11 +933,11 @@
         <v>30</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -965,7 +974,7 @@
         <v>30</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -980,14 +989,14 @@
     <hyperlink ref="I8" r:id="rId8"/>
     <hyperlink ref="I9" r:id="rId9"/>
     <hyperlink ref="I10" r:id="rId10"/>
-    <hyperlink ref="M3" r:id="rId11" display="https://www.facebook.com/tritueviet01"/>
-    <hyperlink ref="M4" r:id="rId12" display="https://www.facebook.com/tritueviet01"/>
-    <hyperlink ref="M5" r:id="rId13" display="https://www.facebook.com/tritueviet01"/>
-    <hyperlink ref="M6" r:id="rId14" display="https://www.facebook.com/tritueviet01"/>
-    <hyperlink ref="M7" r:id="rId15" display="https://www.facebook.com/tritueviet01"/>
-    <hyperlink ref="M8" r:id="rId16" display="https://www.facebook.com/tritueviet01"/>
-    <hyperlink ref="M9" r:id="rId17" display="https://www.facebook.com/tritueviet01"/>
-    <hyperlink ref="M10" r:id="rId18" display="https://www.facebook.com/tritueviet01"/>
+    <hyperlink ref="M3" r:id="rId11"/>
+    <hyperlink ref="M4" r:id="rId12"/>
+    <hyperlink ref="M5" r:id="rId13"/>
+    <hyperlink ref="M6" r:id="rId14"/>
+    <hyperlink ref="M7" r:id="rId15"/>
+    <hyperlink ref="M8" r:id="rId16"/>
+    <hyperlink ref="M9" r:id="rId17"/>
+    <hyperlink ref="M10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
